--- a/Perforatori_Energiya_na_udara.xlsx
+++ b/Perforatori_Energiya_na_udara.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NK\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Severin\Projects\00_Arduino\Accelerometer_with_display\GY-512-with-MAX7219_Arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E0E494-0BE3-457C-B62C-718C8FCA00A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA7AA5A-B8FA-45DC-971A-7F10FED6B790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Енергия на удара</t>
   </si>
@@ -66,6 +66,12 @@
   <si>
     <t>Най-често повтаряща се сила на удара</t>
   </si>
+  <si>
+    <t>джаула</t>
+  </si>
+  <si>
+    <t>височина</t>
+  </si>
 </sst>
 </file>
 
@@ -83,12 +89,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="12">
@@ -220,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -231,12 +243,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -517,21 +530,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H192"/>
+  <dimension ref="B1:K192"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.6640625" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B2" s="1">
         <v>2</v>
       </c>
@@ -549,7 +562,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1">
         <v>2.2000000000000002</v>
       </c>
@@ -564,40 +577,55 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1">
         <v>2.8</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1">
         <v>2.1</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15">
+      <c r="E5" s="13"/>
+      <c r="F5" s="14">
         <f>_xlfn.MODE.SNGL(B:B)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>2.5</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1">
         <v>2.15</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="15">
+        <f t="shared" ref="G8:H8" si="0">G14/(G11*G10)</f>
+        <v>0.30591486389337846</v>
+      </c>
+      <c r="H8" s="15">
+        <f t="shared" si="0"/>
+        <v>0.56594249820275022</v>
+      </c>
+      <c r="I8" s="15">
+        <f>I14/(I11*I10)</f>
+        <v>1.0707020236268248</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>2.4</v>
       </c>
@@ -605,74 +633,150 @@
         <v>6</v>
       </c>
       <c r="E9" s="8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G9" s="8">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="H9" s="8">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="I9" s="8">
+        <v>1.05</v>
+      </c>
+      <c r="J9" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="K9" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>3</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="10">
-        <v>4.5</v>
-      </c>
-      <c r="F10" s="11" t="s">
+      <c r="E10">
+        <v>0.65</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>0.65</v>
+      </c>
+      <c r="K10">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>2.6</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11">
         <v>9.8066499999999994</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G11">
+        <v>9.8066499999999994</v>
+      </c>
+      <c r="H11">
+        <v>9.8066499999999994</v>
+      </c>
+      <c r="I11">
+        <v>9.8066499999999994</v>
+      </c>
+      <c r="J11">
+        <v>9.8066499999999994</v>
+      </c>
+      <c r="K11">
+        <v>9.8066499999999994</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>3.5</v>
       </c>
       <c r="D12" s="9"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="11"/>
-    </row>
-    <row r="13" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="1">
         <v>2.2000000000000002</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="11">
         <f>E9*E10*E11</f>
-        <v>44.129925</v>
+        <v>3.1871612499999999</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G13" s="11">
+        <f>G9*G10*G11</f>
+        <v>2.9910282499999998</v>
+      </c>
+      <c r="H13" s="11">
+        <f t="shared" ref="H13:K13" si="1">H9*H10*H11</f>
+        <v>5.5407572499999995</v>
+      </c>
+      <c r="I13" s="11">
+        <f t="shared" si="1"/>
+        <v>20.593965000000001</v>
+      </c>
+      <c r="J13" s="11">
+        <f t="shared" si="1"/>
+        <v>3.1871612499999999</v>
+      </c>
+      <c r="K13" s="11">
+        <f t="shared" si="1"/>
+        <v>3.1871612499999999</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F14" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="15">
+        <v>3</v>
+      </c>
+      <c r="H14" s="15">
+        <v>5.55</v>
+      </c>
+      <c r="I14" s="15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
         <v>5.5</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
         <v>3.2</v>
       </c>
